--- a/data_year/zb/科技/限额以上研究与试验发展项目(课题)情况/限额以上研究与试验发展项目(课题)研究人员全时当量.xlsx
+++ b/data_year/zb/科技/限额以上研究与试验发展项目(课题)情况/限额以上研究与试验发展项目(课题)研究人员全时当量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="B1:Z1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,88 +560,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>34988.39520033</v>
-      </c>
-      <c r="C2" t="n">
-        <v>51312.44393946</v>
-      </c>
-      <c r="D2" t="n">
-        <v>140418.15655561</v>
-      </c>
-      <c r="E2" t="n">
-        <v>20492.05917521</v>
-      </c>
-      <c r="F2" t="n">
-        <v>23307.56256988</v>
-      </c>
-      <c r="G2" t="n">
-        <v>6914.9031073</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15992.58118422</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1990.00938544</v>
-      </c>
-      <c r="J2" t="n">
-        <v>15476.69362263</v>
-      </c>
-      <c r="K2" t="n">
-        <v>36031.70695177</v>
-      </c>
-      <c r="L2" t="n">
-        <v>50924.76939318</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31323.59015127</v>
-      </c>
-      <c r="N2" t="n">
-        <v>57815.40285196</v>
-      </c>
-      <c r="O2" t="n">
-        <v>112028.94199152</v>
-      </c>
-      <c r="P2" t="n">
-        <v>300929.6767656</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>179524.8597258</v>
-      </c>
-      <c r="R2" t="n">
-        <v>55764.14097449</v>
-      </c>
-      <c r="S2" t="n">
-        <v>17980.31780026</v>
-      </c>
-      <c r="T2" t="n">
-        <v>197956.64451587</v>
-      </c>
-      <c r="U2" t="n">
-        <v>99758.31892771</v>
-      </c>
-      <c r="V2" t="n">
-        <v>4893.47927411</v>
-      </c>
-      <c r="W2" t="n">
-        <v>121605.43766957</v>
-      </c>
-      <c r="X2" t="n">
-        <v>497958.33916201</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>56964.9</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>206404.53744469</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
